--- a/outputs/a/quote_types/list_q_pd.xlsx
+++ b/outputs/a/quote_types/list_q_pd.xlsx
@@ -11,22 +11,24 @@
     <sheet name="A02 vie saint barbre" sheetId="2" r:id="rId2"/>
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="5" r:id="rId5"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="6" r:id="rId6"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="7" r:id="rId7"/>
-    <sheet name="A09 vie saint leu" sheetId="8" r:id="rId8"/>
-    <sheet name="A11 vie saint sebastien" sheetId="9" r:id="rId9"/>
-    <sheet name="A12 miracle saint servais" sheetId="10" r:id="rId10"/>
-    <sheet name="A13 vie seint thibault" sheetId="11" r:id="rId11"/>
-    <sheet name="A16 guillaume angleterre" sheetId="12" r:id="rId12"/>
-    <sheet name="A17 robert deable" sheetId="13" r:id="rId13"/>
-    <sheet name="A18 richart sans peour" sheetId="14" r:id="rId14"/>
-    <sheet name="A19 elegy troyes" sheetId="15" r:id="rId15"/>
-    <sheet name="A20 vieillards tués" sheetId="16" r:id="rId16"/>
-    <sheet name="A21 mauvais riche homme" sheetId="17" r:id="rId17"/>
-    <sheet name="A22 jeu des dez" sheetId="18" r:id="rId18"/>
-    <sheet name="A23 roy avoit amie" sheetId="19" r:id="rId19"/>
-    <sheet name="A25 quatre sereurs" sheetId="20" r:id="rId20"/>
+    <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
+    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
+    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
+    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -405,6 +407,61 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>405</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sor toz autres chaitis, sunt cil maleuré.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Ce sont li userier qui, pour lor grant avoir,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tollent as povres gens ce qu'il pevent avoir.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -438,7 +495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -473,9 +530,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -509,66 +601,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>“Dame a matines vois car par temps sonneront”</t>
+          <t>“Dame, a matines vois; car par temps sonneront.”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Hé; roy dist la roine vos amours fausses sont</t>
+          <t>“Hé! roy, dist la roïne, vos amours fausses sont;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mes les moies sont vraies jamés ne fauseront”</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>771</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>“Est donques celui mort a qui ce cornet fu”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“Ouil sire dist il puis qu'il n'est revenu”</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Adonques s'en parti plus n'i a atendu</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>801</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Serés mon seneschal des or mes en avant”</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>“Non ferai dit le roy l'osfice n'ai pas chiere</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Que se le roy Guillaume repairoit ca arriere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>Mes les moies sont vraies, jamés ne fauseront.”</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -603,42 +655,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>364</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>“Demandés,” dist le duc, “et vous n'y fauldrés mye.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Sire, je vous supplie, s'i fault que je devie,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Que en une chappelle a lieuë et demye</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -713,7 +785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -808,7 +880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -843,7 +915,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Luy a dit: “Vous l'aurez, fille, sans nul respit.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Encore une fenestre faites en celle tour</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Du cousté d'orïent, car c'est tout mon atour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iceluy a tout fait, quant a moy, je le croy.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Tous ceulx qui vouldront Mahom leur Dieu tenir</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Periront, dist la vierge, si m'en vueil abstenir.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -878,7 +1025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -933,82 +1080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>41</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Luy a dit: “Vous l'aurez, fille, sans nul respit.”</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>“Encore une fenestre faites en celle tour</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Du cousté d'orïent, car c'est tout mon atour.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Iceluy a tout fait, quant a moy, je le croy.”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“Tous ceulx qui vouldront Mahom leur Dieu tenir</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Periront, dist la vierge, si m'en vueil abstenir.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1230,6 +1302,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1303,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1378,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1411,39 +1518,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/a/quote_types/list_q_pd.xlsx
+++ b/outputs/a/quote_types/list_q_pd.xlsx
@@ -12,23 +12,24 @@
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
     <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
-    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
-    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
-    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
-    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
-    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
-    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
-    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
-    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
-    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
-    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
-    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
-    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
-    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
-    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
+    <sheet name="A06 vie saint gregoire" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 saint jean evangeliste" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie saint jean paulus" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie glorieux confesseur" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 vie saint leu" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 poines enfer" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 vie saint sebastien" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 miracle saint servais" sheetId="13" r:id="rId13"/>
+    <sheet name="A14 vie seint thibault" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 guillaume angleterre" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 robert deable" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 richart sans peour" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 elegy troyes" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 vieillards tués" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 mauvais riche homme" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 jeu des dez" sheetId="21" r:id="rId21"/>
+    <sheet name="A24 roy avoit amie" sheetId="22" r:id="rId22"/>
+    <sheet name="A26 quatre sereurs" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -407,6 +408,41 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -460,7 +496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -495,7 +531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -530,7 +566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -565,61 +601,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>183</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>“Dame, a matines vois; car par temps sonneront.”</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>“Hé! roy, dist la roïne, vos amours fausses sont;</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mes les moies sont vraies, jamés ne fauseront.”</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
@@ -656,6 +637,41 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -710,7 +726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -785,7 +801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -880,41 +896,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
@@ -1027,6 +1008,41 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1080,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1302,6 +1318,101 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>325</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>“Non fais,” ce dist Gregoire, “Je suis trestout haytiez.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Par ma foy, beau sire, donc n'estes vous pas lyez?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puis que vous m'espousastes estes trop empirez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>356</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sa mere lui dist: “Filz, avecques vous yray.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Non ferez, dame, par la foy que vous doy.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Avec moy ne vendra nulluy fors Dieu le Roy,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>414</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dittes moy vostre nom, s'il vous plaist, sans delay.”</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“On m'appelle Gregoire, je vous le dy pour vray.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jusques a l'endemain la chose demoura.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1335,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1410,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1483,39 +1594,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>